--- a/config/language/cn/tm_xlsx/window.xlsx
+++ b/config/language/cn/tm_xlsx/window.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>xml root</t>
   </si>
@@ -70,72 +70,34 @@
     <t>../../../../window/main_window.cpp</t>
   </si>
   <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>To Xlsx</t>
   </si>
   <si>
-    <r>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Xlsx</t>
-    </r>
-  </si>
-  <si>
-    <t>26</t>
+    <t>转Xlsx</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>To Ts</t>
   </si>
   <si>
-    <r>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ts</t>
-    </r>
-  </si>
-  <si>
-    <t>27</t>
+    <t>转Ts</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>Source Ts Path:</t>
   </si>
   <si>
-    <r>
-      <t>源</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路径：</t>
-    </r>
-  </si>
-  <si>
-    <t>38</t>
+    <t>源Ts路径：</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>Browse</t>
@@ -144,62 +106,85 @@
     <t>浏览</t>
   </si>
   <si>
-    <t>39</t>
+    <t>41</t>
   </si>
   <si>
     <t>Open Directory</t>
   </si>
   <si>
-    <t>打开目录</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>打开文件夹</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>Xlsx Savs Path:</t>
   </si>
   <si>
-    <r>
-      <t>Xlsx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存路径：</t>
-    </r>
-  </si>
-  <si>
-    <t>53</t>
+    <t>Xlsx保存路径：</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>Target Ts Path:</t>
   </si>
   <si>
-    <r>
-      <t>目标</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路径：</t>
-    </r>
-  </si>
-  <si>
-    <t>69</t>
+    <t>目标Ts路径：</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Source Ts Path And Xlsx Savs Path Is Empty</t>
+  </si>
+  <si>
+    <t>源Ts路径与Xlsx保存路径为空</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Xlsx Savs Path And Target Ts Path Is Empty</t>
+  </si>
+  <si>
+    <t>Xlsx保存路径与目标Ts路径为空</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>wid_check_dig</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>../../../../window/wid_check_dig.cpp</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -207,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -224,31 +209,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +261,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -271,22 +308,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,84 +337,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -389,61 +369,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,121 +525,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,39 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,11 +595,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,164 +652,165 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,20 +1157,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1260,14 +1239,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
@@ -1283,14 +1262,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
@@ -1306,14 +1285,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
@@ -1329,14 +1308,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
@@ -1352,14 +1331,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
@@ -1375,14 +1354,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
@@ -1398,14 +1377,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
@@ -1419,6 +1398,132 @@
       </c>
       <c r="G11" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
